--- a/biology/Botanique/Argyreon/Argyreon.xlsx
+++ b/biology/Botanique/Argyreon/Argyreon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Argyreia est un genre de plantes de la famille des Convolvulaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (6 mars 2019)[2], Argyreia Lour., Fl. Cochinch.: 134 (1790) a pour synonymes hétérotypiques :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (6 mars 2019), Argyreia Lour., Fl. Cochinch.: 134 (1790) a pour synonymes hétérotypiques :
 Lettsomia Roxb., Fl. Ind. 2: 75 (1824).
 Moorcroftia Choisy, Mém. Soc. Phys. Genève 6: 431 (1833 publ. 1834)[Conv. Or.: 49]
 Samudra Raf., Fl. Tellur. 4: 72 (1838).
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -572,9 +588,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (6 mars 2019)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (6 mars 2019) :
 Argyreia acuta Loureiro
 Argyreia adpressa (Wall. ex Choisy) Boerl.
 Argyreia akoensis S. Z. Yang, P. H. Chen &amp; Staples
@@ -710,7 +728,7 @@
 Argyreia versicolor (Kerr) Staples &amp; Traiperm
 Argyreia wallichii Choisy
 Argyreia walshae Ooststr.
-Selon World Checklist of Selected Plant Families (WCSP)  (6 mars 2019)[2] :
+Selon World Checklist of Selected Plant Families (WCSP)  (6 mars 2019) :
 Argyreia adpressa (Choisy) Boerl. (1899)
 Argyreia akoensis S.Z.Yang, P.H.Chen &amp; Staples (2015)
 Argyreia albiflora Staples &amp; Traiperm (2015)
@@ -855,7 +873,7 @@
 Argyreia wallichii Choisy (1833 publ. 1834)
 Argyreia walshae Ooststr. (1943)
 Argyreia zeylanica (Gaertn.) Voigt (1845)
-Selon The Plant List            (6 mars 2019)[4] :
+Selon The Plant List            (6 mars 2019) :
 Argyreia acuta Lour.
 Argyreia androyensis Deroin
 Argyreia baoshanensis S.H. Huang
@@ -884,7 +902,7 @@
 Argyreia vahibora Deroin
 Argyreia velutina C.Y. Wu
 Argyreia wallichii Choisy
-Selon Tropicos                                           (6 mars 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (6 mars 2019) (Attention liste brute contenant possiblement des synonymes) :
 Argyreia abyssinica Choisy
 Argyreia acuta Lour.
 Argyreia aggregata (Roxb.) Choisy
